--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-121176.3442653001</v>
+        <v>-123063.9257817017</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>139.239832959112</v>
       </c>
       <c r="G2" t="n">
-        <v>211.4282087653692</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498666</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>22.3515371900546</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>195.7571515107709</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>115.1703721840434</v>
+        <v>15.60663604574726</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>135.1787052649172</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>337.8041023808359</v>
+        <v>179.445246211538</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>110.9272034736101</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>226.9736586744964</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2678835057461</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>249.8285562032632</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>37.15198313460091</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>200.1152919055732</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>192.0250866901841</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.1537278750039</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>283.3815461749962</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2412,10 +2412,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>157.2425576766695</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>265.2267859274625</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273943</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>247.64704583162</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>134.9741352843352</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>81.1551784204426</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965523</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801226</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>36.60092856329109</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.710571738979</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571507</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523587</v>
+        <v>54.76109577523566</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1018.506281012309</v>
+        <v>935.7408973472307</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.506281012309</v>
+        <v>566.778380406819</v>
       </c>
       <c r="D2" t="n">
-        <v>660.2405824055588</v>
+        <v>208.5126818000685</v>
       </c>
       <c r="E2" t="n">
-        <v>274.4523298073146</v>
+        <v>208.5126818000685</v>
       </c>
       <c r="F2" t="n">
-        <v>267.5068290581111</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>1695.806495672432</v>
       </c>
       <c r="X2" t="n">
-        <v>1408.645612988121</v>
+        <v>1322.340737411352</v>
       </c>
       <c r="Y2" t="n">
-        <v>1018.506281012309</v>
+        <v>1322.340737411352</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2317.766129712456</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="C4" t="n">
-        <v>2317.766129712456</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="D4" t="n">
-        <v>2317.766129712456</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="E4" t="n">
-        <v>2169.853036130063</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>2499.414594542696</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>2499.414594542696</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="V4" t="n">
-        <v>2499.414594542696</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="W4" t="n">
-        <v>2499.414594542696</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="X4" t="n">
-        <v>2499.414594542696</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="Y4" t="n">
-        <v>2499.414594542696</v>
+        <v>76.52029211334889</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1721.819089287443</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
         <v>1363.553390680693</v>
@@ -4562,22 +4562,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.752638628377</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="X5" t="n">
-        <v>2224.752638628377</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="Y5" t="n">
-        <v>2108.418929351565</v>
+        <v>2119.115747685226</v>
       </c>
     </row>
     <row r="6">
@@ -4638,10 +4638,10 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4762,13 +4762,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>591.5848374741946</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1526.106027515566</v>
+        <v>1362.140678483279</v>
       </c>
       <c r="C8" t="n">
-        <v>1526.106027515566</v>
+        <v>993.1781615428672</v>
       </c>
       <c r="D8" t="n">
-        <v>1526.106027515566</v>
+        <v>634.9124629361168</v>
       </c>
       <c r="E8" t="n">
-        <v>1140.317774917322</v>
+        <v>249.1242103378725</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>2125.74576872017</v>
       </c>
       <c r="X8" t="n">
-        <v>1916.245359491378</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y8" t="n">
-        <v>1526.106027515566</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W10" t="n">
-        <v>498.8626623130036</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X10" t="n">
-        <v>498.8626623130036</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.8626623130036</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="11">
@@ -5030,22 +5030,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.2416896507652</v>
+        <v>536.9315552688998</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>536.9315552688998</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>386.8149158565639</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>238.9018222741708</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>238.9018222741708</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>238.9018222741708</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,7 +5200,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799364</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>991.8797053790223</v>
+        <v>985.7136853104473</v>
       </c>
       <c r="X13" t="n">
-        <v>763.890154481005</v>
+        <v>757.72413441243</v>
       </c>
       <c r="Y13" t="n">
-        <v>763.890154481005</v>
+        <v>536.9315552688998</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,16 +5279,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5297,16 +5297,16 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5358,19 +5358,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>391.6040140015125</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977053</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.7755322525276</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="C16" t="n">
-        <v>747.8393493246207</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="D16" t="n">
-        <v>597.7227099122849</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="E16" t="n">
-        <v>449.8096163298918</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>302.9196688319814</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>134.7443471518019</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>873.0741867724822</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>618.3896985665954</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.423997082767</v>
+        <v>618.3896985665954</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.423997082767</v>
+        <v>390.400147668578</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.423997082767</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5558,7 +5558,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1133.156678913841</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>843.7395088768803</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>649.7747748463913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,28 +5817,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011339</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
         <v>1528.62340110598</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>582.2416896507652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>1212.672284522552</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>984.6827336245351</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>763.890154481005</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822464</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6008,31 +6008,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636255</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526318</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557904</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557904</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352017</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W25" t="n">
-        <v>976.3259379808422</v>
+        <v>506.855107188543</v>
       </c>
       <c r="X25" t="n">
-        <v>748.3363870828249</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>748.3363870828249</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805456</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822449</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,16 +6300,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>584.4452354807079</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C28" t="n">
-        <v>415.509052552801</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6412,22 +6412,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W28" t="n">
-        <v>994.083251208965</v>
+        <v>731.0291971045602</v>
       </c>
       <c r="X28" t="n">
-        <v>766.0937003109476</v>
+        <v>731.0291971045602</v>
       </c>
       <c r="Y28" t="n">
-        <v>766.0937003109476</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="29">
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6546,22 +6546,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>940.1463453738957</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542157</v>
+        <v>604.5641438163781</v>
       </c>
       <c r="C31" t="n">
-        <v>357.557502256799</v>
+        <v>491.388826169842</v>
       </c>
       <c r="D31" t="n">
-        <v>357.557502256799</v>
+        <v>397.0330520388771</v>
       </c>
       <c r="E31" t="n">
-        <v>265.4052739557765</v>
+        <v>397.0330520388771</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557765</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569677</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.450905366751</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962045</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167068</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661997</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737481</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818911</v>
+        <v>902.680428981894</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652443</v>
+        <v>730.4517433652469</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030848</v>
+        <v>730.4517433652469</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6683,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,34 +6765,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>223.155231313709</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6886,7 +6886,7 @@
         <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6923,64 +6923,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L36" t="n">
-        <v>1196.088769018224</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298185</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7078,28 +7078,28 @@
         <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,25 +7117,25 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010316</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,13 +7163,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7181,22 +7181,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,34 +7394,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,19 +7567,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.421860962789</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,25 +8772,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>104.874910276575</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>234.4116509503166</v>
+        <v>96.03744927814603</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776738</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445211</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,25 +10194,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>19.14409596997041</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>85.30006332127837</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L36" t="n">
-        <v>277.6717966208069</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>8.645944861790067</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>36.69444213332781</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>111.7618452329352</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>86.12206049300416</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>33.68456869885304</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338537</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>3.141452161594825</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>64.30500338171973</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>21.29621240912854</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24652,7 +24652,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>38.87595250497096</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>83.61051806775956</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>30.88838604962832</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965544</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801204</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437433</v>
+        <v>53.61686283108303</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897921</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="E2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="F2" t="n">
         <v>254168.8888295108</v>
@@ -26332,28 +26332,28 @@
         <v>254168.8888295108</v>
       </c>
       <c r="I2" t="n">
-        <v>254168.8888295107</v>
+        <v>254168.8888295108</v>
       </c>
       <c r="J2" t="n">
-        <v>254168.8888295107</v>
+        <v>254168.8888295109</v>
       </c>
       <c r="K2" t="n">
-        <v>264434.3892744252</v>
+        <v>264434.389274426</v>
       </c>
       <c r="L2" t="n">
+        <v>266838.5752058922</v>
+      </c>
+      <c r="M2" t="n">
+        <v>266838.5752058921</v>
+      </c>
+      <c r="N2" t="n">
+        <v>266838.5752058921</v>
+      </c>
+      <c r="O2" t="n">
         <v>266838.5752058923</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>266838.5752058923</v>
-      </c>
-      <c r="N2" t="n">
-        <v>266838.5752058923</v>
-      </c>
-      <c r="O2" t="n">
-        <v>266838.5752058922</v>
-      </c>
-      <c r="P2" t="n">
-        <v>266838.5752058922</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925925</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284595</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086699</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284556</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007504</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007497</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007505</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007547</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020397</v>
+        <v>26081.35417020403</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732802</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26488,22 +26488,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002538</v>
@@ -26522,46 +26522,46 @@
         <v>-553905.4307879827</v>
       </c>
       <c r="C6" t="n">
-        <v>36062.44842656181</v>
+        <v>36062.44842656187</v>
       </c>
       <c r="D6" t="n">
-        <v>36062.44842656185</v>
+        <v>36062.44842656195</v>
       </c>
       <c r="E6" t="n">
-        <v>-370895.2052521093</v>
+        <v>-370992.6643780817</v>
       </c>
       <c r="F6" t="n">
-        <v>154264.8312247867</v>
+        <v>154167.3720988145</v>
       </c>
       <c r="G6" t="n">
-        <v>154264.8312247867</v>
+        <v>154167.3720988145</v>
       </c>
       <c r="H6" t="n">
-        <v>154264.8312247867</v>
+        <v>154167.3720988145</v>
       </c>
       <c r="I6" t="n">
-        <v>154264.8312247863</v>
+        <v>154167.3720988146</v>
       </c>
       <c r="J6" t="n">
-        <v>-22158.38796780587</v>
+        <v>-22255.84709377811</v>
       </c>
       <c r="K6" t="n">
-        <v>97562.22127115294</v>
+        <v>97543.72753321892</v>
       </c>
       <c r="L6" t="n">
-        <v>128445.0436876719</v>
+        <v>128445.043687672</v>
       </c>
       <c r="M6" t="n">
-        <v>3986.935254701719</v>
+        <v>3986.935254701602</v>
       </c>
       <c r="N6" t="n">
-        <v>138787.9504885389</v>
+        <v>138787.9504885388</v>
       </c>
       <c r="O6" t="n">
         <v>138787.9504885389</v>
       </c>
       <c r="P6" t="n">
-        <v>94625.34518569328</v>
+        <v>94625.34518569319</v>
       </c>
     </row>
   </sheetData>
@@ -26710,16 +26710,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964064</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,13 +26753,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26768,10 +26768,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108374</v>
+        <v>12.92863350108354</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>267.6362127825994</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>202.3559612554258</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>112.6140846022837</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>29.27795394731339</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>271.0675664720102</v>
+        <v>370.6313026103063</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>90.53095012411995</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>69.07194336087554</v>
+        <v>227.4307995301735</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>24.03841831872819</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,16 +28062,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>59.54933966209461</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,46 +32938,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,43 +33017,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,43 +33099,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N28" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,10 +34787,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>255.4503488645142</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004661</v>
@@ -35738,10 +35738,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>567.6062243483295</v>
+        <v>429.232022676159</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091987</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36759,7 +36759,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>268.4018009259947</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412245</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043168</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>127.210242276185</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37163,7 +37163,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L36" t="n">
-        <v>526.9295015768312</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>268.0367344586612</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
